--- a/GA_cond/Parameters_Errors.xlsx
+++ b/GA_cond/Parameters_Errors.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>30.82820367332456</v>
+        <v>26.4901036416579</v>
       </c>
       <c r="B2">
-        <v>1415.71930405589</v>
+        <v>442.1532793423642</v>
       </c>
       <c r="C2">
-        <v>4751.82834334952</v>
+        <v>2201.838691306148</v>
       </c>
       <c r="D2">
-        <v>86942.71111072016</v>
+        <v>17929.12889874118</v>
       </c>
       <c r="E2">
-        <v>186784.7148798297</v>
+        <v>63541.66600631341</v>
       </c>
       <c r="F2">
-        <v>187142.1114556496</v>
+        <v>63891.38537015118</v>
       </c>
     </row>
   </sheetData>

--- a/GA_cond/Parameters_Errors.xlsx
+++ b/GA_cond/Parameters_Errors.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>26.4901036416579</v>
+        <v>42.05006556265426</v>
       </c>
       <c r="B2">
-        <v>442.1532793423642</v>
+        <v>571.5175241550988</v>
       </c>
       <c r="C2">
-        <v>2201.838691306148</v>
+        <v>2455.24839790447</v>
       </c>
       <c r="D2">
-        <v>17929.12889874118</v>
+        <v>4482.185403972563</v>
       </c>
       <c r="E2">
-        <v>63541.66600631341</v>
+        <v>5260.528930229194</v>
       </c>
       <c r="F2">
-        <v>63891.38537015118</v>
+        <v>5567.893244685748</v>
       </c>
     </row>
   </sheetData>
